--- a/版本计划表黄&陈 .xlsx
+++ b/版本计划表黄&陈 .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="77">
   <si>
     <t>《暴走萌宠》研发进度规划及版本计划</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>学员反馈API制作</t>
-  </si>
-  <si>
-    <t>学员列表-评分API制作</t>
   </si>
   <si>
     <t>注册API</t>
@@ -252,11 +249,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>联系我们API、帮助中心API制作</t>
+    <t>投诉建议API制作</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>投诉建议API制作</t>
+    <t>帮助中心API制作</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -746,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -844,9 +841,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2154,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GL27"/>
+  <dimension ref="A1:GL26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AL25" sqref="AL25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2196,106 +2190,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="54" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="55"/>
-      <c r="BD1" s="55"/>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="55"/>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="65" t="s">
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="54"/>
+      <c r="BK1" s="54"/>
+      <c r="BL1" s="55"/>
+      <c r="BM1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="BN1" s="55"/>
-      <c r="BO1" s="55"/>
-      <c r="BP1" s="55"/>
-      <c r="BQ1" s="55"/>
-      <c r="BR1" s="55"/>
-      <c r="BS1" s="55"/>
-      <c r="BT1" s="55"/>
-      <c r="BU1" s="55"/>
-      <c r="BV1" s="55"/>
-      <c r="BW1" s="55"/>
-      <c r="BX1" s="55"/>
-      <c r="BY1" s="55"/>
-      <c r="BZ1" s="55"/>
-      <c r="CA1" s="55"/>
-      <c r="CB1" s="55"/>
-      <c r="CC1" s="55"/>
-      <c r="CD1" s="55"/>
-      <c r="CE1" s="55"/>
-      <c r="CF1" s="55"/>
-      <c r="CG1" s="55"/>
-      <c r="CH1" s="55"/>
-      <c r="CI1" s="55"/>
-      <c r="CJ1" s="55"/>
-      <c r="CK1" s="55"/>
-      <c r="CL1" s="55"/>
-      <c r="CM1" s="55"/>
-      <c r="CN1" s="55"/>
-      <c r="CO1" s="55"/>
-      <c r="CP1" s="56"/>
+      <c r="BN1" s="54"/>
+      <c r="BO1" s="54"/>
+      <c r="BP1" s="54"/>
+      <c r="BQ1" s="54"/>
+      <c r="BR1" s="54"/>
+      <c r="BS1" s="54"/>
+      <c r="BT1" s="54"/>
+      <c r="BU1" s="54"/>
+      <c r="BV1" s="54"/>
+      <c r="BW1" s="54"/>
+      <c r="BX1" s="54"/>
+      <c r="BY1" s="54"/>
+      <c r="BZ1" s="54"/>
+      <c r="CA1" s="54"/>
+      <c r="CB1" s="54"/>
+      <c r="CC1" s="54"/>
+      <c r="CD1" s="54"/>
+      <c r="CE1" s="54"/>
+      <c r="CF1" s="54"/>
+      <c r="CG1" s="54"/>
+      <c r="CH1" s="54"/>
+      <c r="CI1" s="54"/>
+      <c r="CJ1" s="54"/>
+      <c r="CK1" s="54"/>
+      <c r="CL1" s="54"/>
+      <c r="CM1" s="54"/>
+      <c r="CN1" s="54"/>
+      <c r="CO1" s="54"/>
+      <c r="CP1" s="55"/>
     </row>
     <row r="2" spans="1:94" ht="17.25" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
@@ -2315,7 +2309,7 @@
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="38"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2340,130 +2334,130 @@
       <c r="AB2" s="16"/>
       <c r="AC2" s="17"/>
       <c r="AD2" s="18"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="60" t="s">
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="60" t="s">
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="60" t="s">
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61"/>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="57" t="s">
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="58"/>
-      <c r="BF2" s="58"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="58"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
+      <c r="BJ2" s="57"/>
       <c r="BK2" s="19"/>
       <c r="BL2" s="20"/>
-      <c r="BM2" s="66" t="s">
+      <c r="BM2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="61"/>
-      <c r="BO2" s="61"/>
-      <c r="BP2" s="61"/>
-      <c r="BQ2" s="61"/>
-      <c r="BR2" s="61"/>
-      <c r="BS2" s="61"/>
-      <c r="BT2" s="60" t="s">
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
+      <c r="BQ2" s="60"/>
+      <c r="BR2" s="60"/>
+      <c r="BS2" s="60"/>
+      <c r="BT2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="BU2" s="61"/>
-      <c r="BV2" s="61"/>
-      <c r="BW2" s="61"/>
-      <c r="BX2" s="61"/>
-      <c r="BY2" s="61"/>
-      <c r="BZ2" s="61"/>
-      <c r="CA2" s="60" t="s">
+      <c r="BU2" s="60"/>
+      <c r="BV2" s="60"/>
+      <c r="BW2" s="60"/>
+      <c r="BX2" s="60"/>
+      <c r="BY2" s="60"/>
+      <c r="BZ2" s="60"/>
+      <c r="CA2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="CB2" s="61"/>
-      <c r="CC2" s="61"/>
-      <c r="CD2" s="61"/>
-      <c r="CE2" s="61"/>
-      <c r="CF2" s="61"/>
-      <c r="CG2" s="61"/>
-      <c r="CH2" s="57" t="s">
+      <c r="CB2" s="60"/>
+      <c r="CC2" s="60"/>
+      <c r="CD2" s="60"/>
+      <c r="CE2" s="60"/>
+      <c r="CF2" s="60"/>
+      <c r="CG2" s="60"/>
+      <c r="CH2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="CI2" s="58"/>
-      <c r="CJ2" s="58"/>
-      <c r="CK2" s="58"/>
-      <c r="CL2" s="58"/>
-      <c r="CM2" s="58"/>
-      <c r="CN2" s="58"/>
+      <c r="CI2" s="57"/>
+      <c r="CJ2" s="57"/>
+      <c r="CK2" s="57"/>
+      <c r="CL2" s="57"/>
+      <c r="CM2" s="57"/>
+      <c r="CN2" s="57"/>
       <c r="CO2" s="19"/>
       <c r="CP2" s="20"/>
     </row>
     <row r="3" spans="1:94" ht="16.5" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="42" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="42" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="42" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="42" t="s">
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="59"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="58"/>
       <c r="AE3" s="22" t="s">
         <v>31</v>
       </c>
@@ -2660,55 +2654,55 @@
     <row r="4" spans="1:94" ht="16.5" customHeight="1">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="50"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="49"/>
       <c r="I4" s="27">
         <v>1</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="51">
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="50">
         <v>2</v>
       </c>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="47" t="s">
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
       <c r="AN4" s="30"/>
       <c r="AO4" s="29"/>
       <c r="AP4" s="28"/>
@@ -2768,55 +2762,55 @@
     <row r="5" spans="1:94" ht="16.5" customHeight="1">
       <c r="A5" s="25"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="47" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="50"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="49"/>
       <c r="I5" s="27">
         <v>2</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="51">
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="50">
         <v>2</v>
       </c>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="47" t="s">
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
       <c r="AN5" s="30"/>
       <c r="AO5" s="29"/>
       <c r="AP5" s="28"/>
@@ -2876,55 +2870,55 @@
     <row r="6" spans="1:94" ht="16.5" customHeight="1">
       <c r="A6" s="25"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="50"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="49"/>
       <c r="I6" s="27">
         <v>2</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="51">
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="50">
         <v>2</v>
       </c>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="47" t="s">
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
       <c r="AN6" s="30"/>
       <c r="AO6" s="29"/>
       <c r="AP6" s="28"/>
@@ -2984,46 +2978,46 @@
     <row r="7" spans="1:94" ht="17.25" customHeight="1">
       <c r="A7" s="25"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="47" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="50"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="49"/>
       <c r="I7" s="27">
         <v>1</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="51">
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="50">
         <v>1</v>
       </c>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="47" t="s">
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="49"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="48"/>
       <c r="AE7" s="28"/>
       <c r="AF7" s="28"/>
       <c r="AG7" s="30"/>
@@ -3092,46 +3086,46 @@
     <row r="8" spans="1:94" ht="16.5" customHeight="1">
       <c r="A8" s="25"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="47" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="50"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="27">
         <v>1</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="51">
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="50">
         <v>1</v>
       </c>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="47" t="s">
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="49"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="48"/>
       <c r="AE8" s="28"/>
       <c r="AF8" s="28"/>
       <c r="AG8" s="30"/>
@@ -3200,46 +3194,46 @@
     <row r="9" spans="1:94" ht="16.5" customHeight="1">
       <c r="A9" s="25"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="47" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="50"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="27">
         <v>1</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="51">
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="50">
         <v>1</v>
       </c>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="47" t="s">
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="49"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="48"/>
       <c r="AE9" s="28"/>
       <c r="AF9" s="28"/>
       <c r="AG9" s="30"/>
@@ -3308,53 +3302,53 @@
     <row r="10" spans="1:94" ht="16.5" customHeight="1">
       <c r="A10" s="25"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="47" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="50"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="49"/>
       <c r="I10" s="27">
         <v>1</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="51">
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="50">
         <v>1</v>
       </c>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="47" t="s">
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="49"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="48"/>
       <c r="AE10" s="28"/>
       <c r="AF10" s="28"/>
       <c r="AG10" s="30"/>
       <c r="AH10" s="29"/>
       <c r="AI10" s="30"/>
       <c r="AJ10" s="30"/>
-      <c r="AK10" s="35"/>
+      <c r="AK10" s="34"/>
       <c r="AL10" s="33"/>
       <c r="AM10" s="28"/>
       <c r="AN10" s="30"/>
@@ -3416,53 +3410,53 @@
     <row r="11" spans="1:94" ht="16.5" customHeight="1">
       <c r="A11" s="25"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="47" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="50"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="27">
         <v>1</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="51">
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="50">
         <v>2</v>
       </c>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="47" t="s">
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="49"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="48"/>
       <c r="AE11" s="28"/>
       <c r="AF11" s="28"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
       <c r="AL11" s="28"/>
       <c r="AM11" s="28"/>
       <c r="AN11" s="30"/>
@@ -3524,53 +3518,53 @@
     <row r="12" spans="1:94" ht="16.5" customHeight="1">
       <c r="A12" s="25"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="47" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="50"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="49"/>
       <c r="I12" s="27">
         <v>1</v>
       </c>
-      <c r="J12" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="51">
+      <c r="J12" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="50">
         <v>2</v>
       </c>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="47" t="s">
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="49"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="48"/>
       <c r="AE12" s="28"/>
       <c r="AF12" s="28"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
       <c r="AL12" s="28"/>
       <c r="AM12" s="28"/>
       <c r="AN12" s="30"/>
@@ -3632,53 +3626,53 @@
     <row r="13" spans="1:94" ht="16.5" customHeight="1">
       <c r="A13" s="25"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="47" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="50"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="27">
         <v>2</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="51">
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="50">
         <v>2</v>
       </c>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="47" t="s">
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="49"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="48"/>
       <c r="AE13" s="28"/>
       <c r="AF13" s="28"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
       <c r="AL13" s="28"/>
       <c r="AM13" s="28"/>
       <c r="AN13" s="30"/>
@@ -3740,53 +3734,53 @@
     <row r="14" spans="1:94" ht="16.5" customHeight="1">
       <c r="A14" s="25"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="47" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="50"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="27">
         <v>1</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="51">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="50">
         <v>2</v>
       </c>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="47" t="s">
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="49"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="48"/>
       <c r="AE14" s="31"/>
       <c r="AF14" s="28"/>
       <c r="AG14" s="30"/>
       <c r="AH14" s="29"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="33"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
       <c r="AL14" s="28"/>
       <c r="AM14" s="28"/>
       <c r="AN14" s="30"/>
@@ -3848,53 +3842,53 @@
     <row r="15" spans="1:94" ht="16.5" customHeight="1">
       <c r="A15" s="25"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="47" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="50"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="27">
+        <v>1</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="50">
         <v>2</v>
       </c>
-      <c r="J15" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="51">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="49"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="48"/>
       <c r="AE15" s="31"/>
       <c r="AF15" s="28"/>
-      <c r="AG15" s="30"/>
+      <c r="AG15" s="37"/>
       <c r="AH15" s="29"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="33"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
       <c r="AL15" s="28"/>
       <c r="AM15" s="28"/>
       <c r="AN15" s="30"/>
@@ -3956,49 +3950,49 @@
     <row r="16" spans="1:94" ht="16.5" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="47" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="50"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="27">
         <v>1</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="50">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="51">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="49"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="48"/>
       <c r="AE16" s="31"/>
       <c r="AF16" s="28"/>
-      <c r="AG16" s="38"/>
+      <c r="AG16" s="37"/>
       <c r="AH16" s="29"/>
       <c r="AI16" s="29"/>
       <c r="AJ16" s="29"/>
@@ -4064,49 +4058,49 @@
     <row r="17" spans="1:94" ht="16.5" customHeight="1">
       <c r="A17" s="25"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="47" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="50"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="27">
         <v>1</v>
       </c>
-      <c r="J17" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="51">
+      <c r="J17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="50">
         <v>2</v>
       </c>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="49"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="48"/>
       <c r="AE17" s="31"/>
       <c r="AF17" s="28"/>
-      <c r="AG17" s="38"/>
+      <c r="AG17" s="37"/>
       <c r="AH17" s="29"/>
       <c r="AI17" s="29"/>
       <c r="AJ17" s="29"/>
@@ -4172,51 +4166,51 @@
     <row r="18" spans="1:94" ht="16.5" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="47" t="s">
+      <c r="D18" s="47"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="50"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="49"/>
       <c r="I18" s="27">
         <v>1</v>
       </c>
-      <c r="J18" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="51">
+      <c r="J18" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="50">
         <v>2</v>
       </c>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="49"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="48"/>
       <c r="AE18" s="31"/>
       <c r="AF18" s="28"/>
-      <c r="AG18" s="38"/>
+      <c r="AG18" s="29"/>
       <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
+      <c r="AI18" s="37"/>
       <c r="AJ18" s="29"/>
       <c r="AK18" s="29"/>
       <c r="AL18" s="28"/>
@@ -4280,52 +4274,52 @@
     <row r="19" spans="1:94" ht="16.5" customHeight="1">
       <c r="A19" s="25"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="47" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="50"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="49"/>
       <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="50">
         <v>1</v>
       </c>
-      <c r="J19" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="51">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="49"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="48"/>
       <c r="AE19" s="31"/>
       <c r="AF19" s="28"/>
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="37"/>
       <c r="AK19" s="29"/>
       <c r="AL19" s="28"/>
       <c r="AM19" s="28"/>
@@ -4388,52 +4382,52 @@
     <row r="20" spans="1:94" ht="16.5" customHeight="1">
       <c r="A20" s="25"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="47" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="50"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="49"/>
       <c r="I20" s="27">
         <v>2</v>
       </c>
-      <c r="J20" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="51">
+      <c r="J20" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="50">
         <v>1</v>
       </c>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="49"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="48"/>
       <c r="AE20" s="31"/>
       <c r="AF20" s="28"/>
       <c r="AG20" s="29"/>
       <c r="AH20" s="29"/>
       <c r="AI20" s="29"/>
-      <c r="AJ20" s="38"/>
+      <c r="AJ20" s="37"/>
       <c r="AK20" s="29"/>
       <c r="AL20" s="28"/>
       <c r="AM20" s="28"/>
@@ -4496,53 +4490,53 @@
     <row r="21" spans="1:94" ht="16.5" customHeight="1">
       <c r="A21" s="25"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="47" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="50"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="27">
         <v>2</v>
       </c>
-      <c r="J21" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="51">
+      <c r="J21" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="50">
         <v>1</v>
       </c>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="49"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="48"/>
       <c r="AE21" s="31"/>
       <c r="AF21" s="28"/>
       <c r="AG21" s="29"/>
       <c r="AH21" s="29"/>
       <c r="AI21" s="29"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="36"/>
       <c r="AL21" s="28"/>
       <c r="AM21" s="28"/>
       <c r="AN21" s="30"/>
@@ -4604,53 +4598,53 @@
     <row r="22" spans="1:94" ht="16.5" customHeight="1">
       <c r="A22" s="25"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="47" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="50"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="27">
         <v>2</v>
       </c>
-      <c r="J22" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="51">
+      <c r="J22" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="50">
         <v>1</v>
       </c>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="49"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="48"/>
       <c r="AE22" s="31"/>
       <c r="AF22" s="28"/>
       <c r="AG22" s="29"/>
       <c r="AH22" s="29"/>
       <c r="AI22" s="29"/>
       <c r="AJ22" s="29"/>
-      <c r="AK22" s="37"/>
+      <c r="AK22" s="36"/>
       <c r="AL22" s="28"/>
       <c r="AM22" s="28"/>
       <c r="AN22" s="30"/>
@@ -4712,54 +4706,54 @@
     <row r="23" spans="1:94" ht="16.5" customHeight="1">
       <c r="A23" s="25"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="47" t="s">
+      <c r="D23" s="47"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="50"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="49"/>
       <c r="I23" s="27">
-        <v>2</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="51">
+        <v>3</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="50">
         <v>1</v>
       </c>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="49"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="48"/>
       <c r="AE23" s="31"/>
       <c r="AF23" s="28"/>
       <c r="AG23" s="29"/>
       <c r="AH23" s="29"/>
       <c r="AI23" s="29"/>
       <c r="AJ23" s="29"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="28"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="36"/>
       <c r="AM23" s="28"/>
       <c r="AN23" s="30"/>
       <c r="AO23" s="29"/>
@@ -4820,46 +4814,46 @@
     <row r="24" spans="1:94" ht="16.5" customHeight="1">
       <c r="A24" s="25"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="47" t="s">
+      <c r="D24" s="47"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="50"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="49"/>
       <c r="I24" s="27">
         <v>3</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="51">
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="50">
         <v>1</v>
       </c>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="49"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="48"/>
       <c r="AE24" s="31"/>
       <c r="AF24" s="28"/>
       <c r="AG24" s="29"/>
@@ -4928,46 +4922,46 @@
     <row r="25" spans="1:94" ht="16.5" customHeight="1">
       <c r="A25" s="25"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="47" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="50"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="49"/>
       <c r="I25" s="27">
         <v>3</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="51">
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="50">
         <v>1</v>
       </c>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="49"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="48"/>
       <c r="AE25" s="31"/>
       <c r="AF25" s="28"/>
       <c r="AG25" s="29"/>
@@ -4975,8 +4969,8 @@
       <c r="AI25" s="29"/>
       <c r="AJ25" s="29"/>
       <c r="AK25" s="29"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="28"/>
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="36"/>
       <c r="AN25" s="30"/>
       <c r="AO25" s="29"/>
       <c r="AP25" s="28"/>
@@ -5036,46 +5030,46 @@
     <row r="26" spans="1:94" ht="16.5" customHeight="1">
       <c r="A26" s="25"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="47" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="50"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="49"/>
       <c r="I26" s="27">
         <v>3</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="J26" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="51">
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="50">
         <v>1</v>
       </c>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="49"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="48"/>
       <c r="AE26" s="31"/>
       <c r="AF26" s="28"/>
       <c r="AG26" s="29"/>
@@ -5083,8 +5077,8 @@
       <c r="AI26" s="29"/>
       <c r="AJ26" s="29"/>
       <c r="AK26" s="29"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="37"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="36"/>
       <c r="AN26" s="30"/>
       <c r="AO26" s="29"/>
       <c r="AP26" s="28"/>
@@ -5141,118 +5135,8 @@
       <c r="CO26" s="28"/>
       <c r="CP26" s="28"/>
     </row>
-    <row r="27" spans="1:94" ht="16.5" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="27">
-        <v>3</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="51">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="29"/>
-      <c r="AP27" s="28"/>
-      <c r="AQ27" s="28"/>
-      <c r="AR27" s="28"/>
-      <c r="AS27" s="28"/>
-      <c r="AT27" s="28"/>
-      <c r="AU27" s="30"/>
-      <c r="AV27" s="29"/>
-      <c r="AW27" s="28"/>
-      <c r="AX27" s="28"/>
-      <c r="AY27" s="28"/>
-      <c r="AZ27" s="28"/>
-      <c r="BA27" s="28"/>
-      <c r="BB27" s="30"/>
-      <c r="BC27" s="29"/>
-      <c r="BD27" s="28"/>
-      <c r="BE27" s="28"/>
-      <c r="BF27" s="28"/>
-      <c r="BG27" s="28"/>
-      <c r="BH27" s="28"/>
-      <c r="BI27" s="30"/>
-      <c r="BJ27" s="29"/>
-      <c r="BK27" s="28"/>
-      <c r="BL27" s="28"/>
-      <c r="BM27" s="28"/>
-      <c r="BN27" s="28"/>
-      <c r="BO27" s="28"/>
-      <c r="BP27" s="30"/>
-      <c r="BQ27" s="30"/>
-      <c r="BR27" s="28"/>
-      <c r="BS27" s="28"/>
-      <c r="BT27" s="28"/>
-      <c r="BU27" s="28"/>
-      <c r="BV27" s="28"/>
-      <c r="BW27" s="30"/>
-      <c r="BX27" s="30"/>
-      <c r="BY27" s="28"/>
-      <c r="BZ27" s="28"/>
-      <c r="CA27" s="28"/>
-      <c r="CB27" s="28"/>
-      <c r="CC27" s="28"/>
-      <c r="CD27" s="28"/>
-      <c r="CE27" s="30"/>
-      <c r="CF27" s="30"/>
-      <c r="CG27" s="28"/>
-      <c r="CH27" s="28"/>
-      <c r="CI27" s="28"/>
-      <c r="CJ27" s="28"/>
-      <c r="CK27" s="28"/>
-      <c r="CL27" s="30"/>
-      <c r="CM27" s="30"/>
-      <c r="CN27" s="28"/>
-      <c r="CO27" s="28"/>
-      <c r="CP27" s="28"/>
-    </row>
   </sheetData>
-  <mergeCells count="139">
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="J27:W27"/>
+  <mergeCells count="134">
     <mergeCell ref="AA26:AD26"/>
     <mergeCell ref="J26:W26"/>
     <mergeCell ref="AA25:AD25"/>
@@ -5261,62 +5145,59 @@
     <mergeCell ref="J24:W24"/>
     <mergeCell ref="AA23:AD23"/>
     <mergeCell ref="J23:W23"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="X25:Z25"/>
     <mergeCell ref="AA22:AD22"/>
     <mergeCell ref="J22:W22"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="X24:Z24"/>
     <mergeCell ref="AA21:AD21"/>
     <mergeCell ref="J21:W21"/>
     <mergeCell ref="AA20:AD20"/>
     <mergeCell ref="J20:W20"/>
     <mergeCell ref="AA19:AD19"/>
     <mergeCell ref="J19:W19"/>
+    <mergeCell ref="AA18:AD18"/>
     <mergeCell ref="J18:W18"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="J17:W17"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="J9:W9"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J17:W17"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="X15:Z15"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="J16:W16"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J15:W15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="J10:W10"/>
-    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA15:AD15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="J12:W12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="BM1:CP1"/>
     <mergeCell ref="AP2:AV2"/>
     <mergeCell ref="CA2:CG2"/>
@@ -5326,41 +5207,30 @@
     <mergeCell ref="CH2:CN2"/>
     <mergeCell ref="BM2:BS2"/>
     <mergeCell ref="AW2:BC2"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="J7:W7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="AI1:BL1"/>
     <mergeCell ref="X11:Z11"/>
     <mergeCell ref="BD2:BJ2"/>
-    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F26:H26"/>
     <mergeCell ref="J11:W11"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="J14:W14"/>
     <mergeCell ref="X4:Z4"/>
     <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="J15:W15"/>
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AI2:AO2"/>
     <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="AA15:AD15"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="X20:Z20"/>
     <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="J12:W12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="AA4:AD4"/>
     <mergeCell ref="AA14:AD14"/>
     <mergeCell ref="AA13:AD13"/>
     <mergeCell ref="X13:Z13"/>
@@ -5376,6 +5246,11 @@
     <mergeCell ref="X10:Z10"/>
     <mergeCell ref="J8:W8"/>
     <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="J4:W4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A3:B3"/>
@@ -5390,6 +5265,12 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="J3:W3"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="J7:W7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="X6:Z6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
